--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data5.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data5.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.31180630017780914</v>
+        <v>0.3118471195942363</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.880413887990293</v>
+        <v>-0.881118177554658</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15639732494615968</v>
+        <v>0.15637796365130816</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08468268795737346</v>
+        <v>0.08462958965737984</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
